--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1567,7 +1567,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Glasgow Coma Scale</t>
+    <t>RS Observation - Glasgow Coma Scale</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Glasgow Coma Scale</t>
+    <t>Road Safety Observation - Glasgow Coma Scale</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Glasgow Coma Scale</t>
+    <t>RS Observation - Glasgow Coma Scale</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4347,10 +4347,10 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>
@@ -9907,10 +9907,10 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>83</v>
@@ -11603,10 +11603,10 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>83</v>
@@ -13299,10 +13299,10 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,6 +748,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="248241002"/&gt;
   &lt;display value="Glasgow coma score (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1567,6 +1568,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="281395000"/&gt;
   &lt;display value="Glasgow Coma Score eye opening subscore (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1634,6 +1636,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="281397008"/&gt;
   &lt;display value="Glasgow Coma Scale verbal response subscore (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1692,6 +1695,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="281396004"/&gt;
   &lt;display value="Glasgow Coma Scale motor response subscore (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3944,7 +3944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-gcs.xlsx
+++ b/StructureDefinition-rs-observation-gcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
